--- a/CountryData/Mongolia/Mongolia_Workbook.xlsx
+++ b/CountryData/Mongolia/Mongolia_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Mongolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{098DBFF8-2F2A-4340-9452-8A102AD74C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:40009_{098DBFF8-2F2A-4340-9452-8A102AD74C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C60BA389-9E43-4E7E-A72A-40CBAD786598}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mongolia_Popup" sheetId="1" r:id="rId1"/>
@@ -58,18 +58,12 @@
     <t>Link to economic information.</t>
   </si>
   <si>
-    <t>Laws That Include Local Content Provisions:</t>
-  </si>
-  <si>
     <t>Vision 2050</t>
   </si>
   <si>
     <t>State Policy on Petroleum Sector 2018-2027</t>
   </si>
   <si>
-    <t xml:space="preserve"> State Industrial Policy, 2015</t>
-  </si>
-  <si>
     <t>Regulation on Minerals Prospection, Exploration and Exploitation Activities, 2018</t>
   </si>
   <si>
@@ -86,54 +80,6 @@
   </si>
   <si>
     <t>Relevant Initiatives</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">December 2020 - </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New Mining Technologies Offering Opportunities to Advance Sustainable Development</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fraser et al. (2020) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Starting Local: Creating Value from Mining in Rural Communities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rio Tinto (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Why Agreements Matter: A Resource Guide for Integrating Agreements Into Communities and Social Performance Work at Rio Tinto</t>
-    </r>
   </si>
   <si>
     <r>
@@ -157,12 +103,87 @@
       <t xml:space="preserve"> (Mongolian) </t>
     </r>
   </si>
+  <si>
+    <t>ELLED Relevant Legislation:</t>
+  </si>
+  <si>
+    <t>State Industrial Policy, 2015</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">December 2020 - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Mining Technologies Offering Opportunities to Advance Sustainable Development</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fraser et al. (2020) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Starting Local: Creating Value from Mining in Rural Communities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rio Tinto (2016) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Why Agreements Matter: A Resource Guide for Integrating Agreements Into Communities and Social Performance Work at Rio Tinto</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -392,6 +413,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -792,7 +843,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -807,24 +858,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -844,6 +883,23 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,24 +1258,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F29"/>
+      <selection sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.5" customWidth="1"/>
+    <col min="1" max="1" width="54.75" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+    </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1229,7 +1288,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
@@ -1241,7 +1300,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
@@ -1253,7 +1312,7 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
@@ -1265,7 +1324,7 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>99</v>
       </c>
       <c r="C6" s="2"/>
@@ -1277,7 +1336,7 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2"/>
@@ -1285,207 +1344,215 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="2"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1495,25 +1562,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=MN"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=MN"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=MN"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/mongolia"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/145/export-basket"/>
-    <hyperlink ref="A15" r:id="rId7" display="https://www.mmhi.gov.mn/uploads/file/9f0958fd9b7efcddd149ccb1d44ecf26ccce840d.pdf"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://www.legalinfo.mn/annex/details/8251?lawid=13184"/>
-    <hyperlink ref="A17" r:id="rId9" display="https://www.legalinfo.mn/annex/details/8297?lawid=13224"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://www.legalinfo.mn/annex/details/7870?lawid=12681"/>
-    <hyperlink ref="A21" r:id="rId11" display="https://montsame.mn/en/read/248402"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://sppga.ubc.ca/wp-content/uploads/sites/5/2020/10/20200916_UBC_Starting-Local_Report_ENG.pdf"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://www.csrm.uq.edu.au/media/docs/1378/whyagreementsmatter-web.pdf"/>
-    <hyperlink ref="A28" r:id="rId14" display="http://iltodgeree.mn/"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=MN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=MN" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=MN" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/mongolia" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/145/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A28" r:id="rId14" display="http://iltodgeree.mn/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A13" r:id="rId15" xr:uid="{D119C081-E175-4D09-829B-DEFE8F4CA945}"/>
+    <hyperlink ref="A14" r:id="rId16" xr:uid="{BA22144E-61EE-49F6-8F94-1A8DDE620905}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
-  <webPublishItems count="1">
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <webPublishItems count="2">
     <webPublishItem id="26733" divId="Mongolia_Workbook_26733" sourceType="range" sourceRef="A1:F29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Mongolia\Mongolia_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="12807" divId="Mongolia_Workbook_12807" sourceType="range" sourceRef="A1:H29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Mongolia\Mongolia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>